--- a/Hydropower_Fluctuations.xlsx
+++ b/Hydropower_Fluctuations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F38BD0-3645-4193-A47E-B8C2CF587508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C661295-A439-4BEB-8291-0416D2D79AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" xr2:uid="{A81DFEFB-5B04-4B3A-93E1-B49457620F3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="28">
   <si>
     <t>Min Power</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Sept 30 2018</t>
+  </si>
+  <si>
+    <t>Elevation Diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The calcuations presented here are coarse estimates of change in power generation due to change in reservior elevation </t>
   </si>
 </sst>
 </file>
@@ -118,15 +124,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,25 +161,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482B0D3-E720-4E26-844E-49B7B4BAF006}">
-  <dimension ref="A2:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -491,26 +503,35 @@
     <col min="1" max="1" width="13.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2">
-        <f>B7-B8</f>
-        <v>3.6900000000000546</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43160</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -618,25 +639,28 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
       <c r="B9">
-        <f>B14-B15</f>
-        <v>2.7699999999999818</v>
+        <f>B7-B8</f>
+        <v>3.6900000000000546</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43191</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -744,25 +768,28 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
       <c r="B16">
-        <f>B21-B22</f>
-        <v>-2.25</v>
+        <f>B14-B15</f>
+        <v>2.7699999999999818</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43221</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
@@ -870,25 +897,28 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
       <c r="B23">
-        <f>B28-B29</f>
-        <v>1.5599999999999454</v>
+        <f>B21-B22</f>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>43252</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
@@ -996,25 +1026,28 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
       <c r="B30">
-        <f>B35-B36</f>
-        <v>6.0099999999997635</v>
+        <f>B28-B29</f>
+        <v>1.5599999999999454</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>43282</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
@@ -1090,7 +1123,7 @@
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>3603.8</v>
       </c>
       <c r="C36" s="1">
@@ -1122,25 +1155,28 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
       <c r="B37">
-        <f>B42-B43</f>
-        <v>6.4700000000002547</v>
+        <f>B35-B36</f>
+        <v>6.0099999999997635</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>43313</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
@@ -1248,25 +1284,28 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
       <c r="B44">
-        <f>B49-B50</f>
-        <v>4.5700000000001637</v>
+        <f>B42-B43</f>
+        <v>6.4700000000002547</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43344</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
@@ -1374,25 +1413,28 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
       <c r="B51">
-        <f>B56-B57</f>
-        <v>1.6900000000000546</v>
+        <f>B49-B50</f>
+        <v>4.5700000000001637</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>43374</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
@@ -1499,8 +1541,18 @@
         <v>11.863563400000203</v>
       </c>
     </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <f>B56-B57</f>
+        <v>1.6900000000000546</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A45:K45"/>
     <mergeCell ref="A52:K52"/>
     <mergeCell ref="A3:K3"/>
@@ -1511,5 +1563,6 @@
     <mergeCell ref="A38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>